--- a/data_new/RS3_cyclic_data_disposed.xlsx
+++ b/data_new/RS3_cyclic_data_disposed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Hysteretic curve processing\data_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CDDD1AAD-128C-438B-AEB2-4A1C85161FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BE0B1E-902B-4C4E-83A3-1989B9520CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS3_cyclic_data_disposed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -346,7 +357,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1291,19 +1302,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1332,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1363,12 @@
         <f>IF(H2=I2,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>G2+I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1399,12 @@
         <f t="shared" ref="J3:J66" si="2">IF(H3=I3,TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="3">G3+I3</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1415,8 +1435,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1447,8 +1471,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1479,8 +1507,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1511,8 +1543,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1543,8 +1579,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1575,8 +1615,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1607,8 +1651,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1639,8 +1687,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1671,8 +1723,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1703,8 +1759,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1735,8 +1795,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1767,8 +1831,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1799,8 +1867,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1831,8 +1903,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1863,8 +1939,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1895,8 +1975,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1927,8 +2011,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1959,8 +2047,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1991,8 +2083,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2023,8 +2119,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2055,8 +2155,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2087,8 +2191,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2119,8 +2227,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2151,8 +2263,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2183,8 +2299,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2215,8 +2335,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2247,8 +2371,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2279,8 +2407,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2311,8 +2443,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2343,8 +2479,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2375,8 +2515,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2407,8 +2551,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>817</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2439,8 +2587,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2471,8 +2623,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2503,8 +2659,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2535,8 +2695,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2567,8 +2731,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -2599,8 +2767,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -2631,8 +2803,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2663,8 +2839,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -2695,8 +2875,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2727,8 +2911,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -2759,8 +2947,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -2791,8 +2983,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -2823,8 +3019,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -2855,8 +3055,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2887,8 +3091,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -2919,8 +3127,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -2951,8 +3163,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2983,8 +3199,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -3015,8 +3235,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -3047,8 +3271,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -3079,8 +3307,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -3111,8 +3343,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -3143,8 +3379,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -3175,8 +3415,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -3207,8 +3451,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <f t="shared" si="3"/>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -3239,8 +3487,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <f t="shared" si="3"/>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -3271,8 +3523,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f t="shared" si="3"/>
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -3303,8 +3559,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>29</v>
       </c>
@@ -3335,8 +3595,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <f t="shared" si="3"/>
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>29</v>
       </c>
@@ -3367,8 +3631,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <f t="shared" si="3"/>
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -3399,8 +3667,12 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -3420,19 +3692,23 @@
         <v>56</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H109" si="3">IF(G66&gt;G67,G66+H66,H66)</f>
+        <f t="shared" ref="H67:H109" si="4">IF(G66&gt;G67,G66+H66,H66)</f>
         <v>1619</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I109" si="4">IF(B67&lt;&gt;B66,G66+I66,I66)</f>
+        <f t="shared" ref="I67:I109" si="5">IF(B67&lt;&gt;B66,G66+I66,I66)</f>
         <v>1619</v>
       </c>
       <c r="J67" t="b">
-        <f t="shared" ref="J67:J109" si="5">IF(H67=I67,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J67:J109" si="6">IF(H67=I67,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K109" si="7">G67+I67</f>
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -3452,19 +3728,23 @@
         <v>57</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
-        <v>1619</v>
-      </c>
-      <c r="I68">
         <f t="shared" si="4"/>
         <v>1619</v>
       </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>1619</v>
+      </c>
       <c r="J68" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="7"/>
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -3484,19 +3764,23 @@
         <v>24</v>
       </c>
       <c r="H69">
-        <f t="shared" si="3"/>
-        <v>1676</v>
-      </c>
-      <c r="I69">
         <f t="shared" si="4"/>
         <v>1676</v>
       </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>1676</v>
+      </c>
       <c r="J69" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="7"/>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>31</v>
       </c>
@@ -3516,19 +3800,23 @@
         <v>57</v>
       </c>
       <c r="H70">
-        <f t="shared" si="3"/>
-        <v>1676</v>
-      </c>
-      <c r="I70">
         <f t="shared" si="4"/>
         <v>1676</v>
       </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>1676</v>
+      </c>
       <c r="J70" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="7"/>
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -3548,19 +3836,23 @@
         <v>58</v>
       </c>
       <c r="H71">
-        <f t="shared" si="3"/>
-        <v>1676</v>
-      </c>
-      <c r="I71">
         <f t="shared" si="4"/>
         <v>1676</v>
       </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>1676</v>
+      </c>
       <c r="J71" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -3580,19 +3872,23 @@
         <v>14</v>
       </c>
       <c r="H72">
-        <f t="shared" si="3"/>
-        <v>1734</v>
-      </c>
-      <c r="I72">
         <f t="shared" si="4"/>
         <v>1734</v>
       </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>1734</v>
+      </c>
       <c r="J72" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="7"/>
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -3612,19 +3908,23 @@
         <v>48</v>
       </c>
       <c r="H73">
-        <f t="shared" si="3"/>
-        <v>1734</v>
-      </c>
-      <c r="I73">
         <f t="shared" si="4"/>
         <v>1734</v>
       </c>
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>1734</v>
+      </c>
       <c r="J73" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -3644,19 +3944,23 @@
         <v>20</v>
       </c>
       <c r="H74">
-        <f t="shared" si="3"/>
-        <v>1782</v>
-      </c>
-      <c r="I74">
         <f t="shared" si="4"/>
         <v>1782</v>
       </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>1782</v>
+      </c>
       <c r="J74" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="7"/>
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -3676,19 +3980,23 @@
         <v>57</v>
       </c>
       <c r="H75">
-        <f t="shared" si="3"/>
-        <v>1782</v>
-      </c>
-      <c r="I75">
         <f t="shared" si="4"/>
         <v>1782</v>
       </c>
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>1782</v>
+      </c>
       <c r="J75" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="7"/>
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -3708,19 +4016,23 @@
         <v>59</v>
       </c>
       <c r="H76">
-        <f t="shared" si="3"/>
-        <v>1782</v>
-      </c>
-      <c r="I76">
         <f t="shared" si="4"/>
         <v>1782</v>
       </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>1782</v>
+      </c>
       <c r="J76" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -3740,19 +4052,23 @@
         <v>17</v>
       </c>
       <c r="H77">
-        <f t="shared" si="3"/>
-        <v>1841</v>
-      </c>
-      <c r="I77">
         <f t="shared" si="4"/>
         <v>1841</v>
       </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>1841</v>
+      </c>
       <c r="J77" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="7"/>
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>34</v>
       </c>
@@ -3772,19 +4088,23 @@
         <v>57</v>
       </c>
       <c r="H78">
-        <f t="shared" si="3"/>
-        <v>1841</v>
-      </c>
-      <c r="I78">
         <f t="shared" si="4"/>
         <v>1841</v>
       </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>1841</v>
+      </c>
       <c r="J78" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>34</v>
       </c>
@@ -3804,19 +4124,23 @@
         <v>58</v>
       </c>
       <c r="H79">
-        <f t="shared" si="3"/>
-        <v>1841</v>
-      </c>
-      <c r="I79">
         <f t="shared" si="4"/>
         <v>1841</v>
       </c>
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>1841</v>
+      </c>
       <c r="J79" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -3836,19 +4160,23 @@
         <v>23</v>
       </c>
       <c r="H80">
-        <f t="shared" si="3"/>
-        <v>1899</v>
-      </c>
-      <c r="I80">
         <f t="shared" si="4"/>
         <v>1899</v>
       </c>
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>1899</v>
+      </c>
       <c r="J80" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>35</v>
       </c>
@@ -3868,19 +4196,23 @@
         <v>60</v>
       </c>
       <c r="H81">
-        <f t="shared" si="3"/>
-        <v>1899</v>
-      </c>
-      <c r="I81">
         <f t="shared" si="4"/>
         <v>1899</v>
       </c>
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>1899</v>
+      </c>
       <c r="J81" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -3900,19 +4232,23 @@
         <v>18</v>
       </c>
       <c r="H82">
-        <f t="shared" si="3"/>
-        <v>1959</v>
-      </c>
-      <c r="I82">
         <f t="shared" si="4"/>
         <v>1959</v>
       </c>
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>1959</v>
+      </c>
       <c r="J82" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="7"/>
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -3932,19 +4268,23 @@
         <v>56</v>
       </c>
       <c r="H83">
-        <f t="shared" si="3"/>
-        <v>1959</v>
-      </c>
-      <c r="I83">
         <f t="shared" si="4"/>
         <v>1959</v>
       </c>
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>1959</v>
+      </c>
       <c r="J83" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="7"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -3964,19 +4304,23 @@
         <v>57</v>
       </c>
       <c r="H84">
-        <f t="shared" si="3"/>
-        <v>1959</v>
-      </c>
-      <c r="I84">
         <f t="shared" si="4"/>
         <v>1959</v>
       </c>
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>1959</v>
+      </c>
       <c r="J84" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -3996,19 +4340,23 @@
         <v>19</v>
       </c>
       <c r="H85">
-        <f t="shared" si="3"/>
-        <v>2016</v>
-      </c>
-      <c r="I85">
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
       <c r="J85" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -4028,19 +4376,23 @@
         <v>60</v>
       </c>
       <c r="H86">
-        <f t="shared" si="3"/>
-        <v>2016</v>
-      </c>
-      <c r="I86">
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
       <c r="J86" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>37</v>
       </c>
@@ -4060,19 +4412,23 @@
         <v>61</v>
       </c>
       <c r="H87">
-        <f t="shared" si="3"/>
-        <v>2016</v>
-      </c>
-      <c r="I87">
         <f t="shared" si="4"/>
         <v>2016</v>
       </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
       <c r="J87" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -4092,19 +4448,23 @@
         <v>19</v>
       </c>
       <c r="H88">
-        <f t="shared" si="3"/>
-        <v>2077</v>
-      </c>
-      <c r="I88">
         <f t="shared" si="4"/>
         <v>2077</v>
       </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>2077</v>
+      </c>
       <c r="J88" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -4124,19 +4484,23 @@
         <v>59</v>
       </c>
       <c r="H89">
-        <f t="shared" si="3"/>
-        <v>2077</v>
-      </c>
-      <c r="I89">
         <f t="shared" si="4"/>
         <v>2077</v>
       </c>
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>2077</v>
+      </c>
       <c r="J89" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -4156,19 +4520,23 @@
         <v>18</v>
       </c>
       <c r="H90">
-        <f t="shared" si="3"/>
-        <v>2136</v>
-      </c>
-      <c r="I90">
         <f t="shared" si="4"/>
         <v>2136</v>
       </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>2136</v>
+      </c>
       <c r="J90" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -4188,19 +4556,23 @@
         <v>60</v>
       </c>
       <c r="H91">
-        <f t="shared" si="3"/>
-        <v>2136</v>
-      </c>
-      <c r="I91">
         <f t="shared" si="4"/>
         <v>2136</v>
       </c>
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>2136</v>
+      </c>
       <c r="J91" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -4220,19 +4592,23 @@
         <v>17</v>
       </c>
       <c r="H92">
-        <f t="shared" si="3"/>
-        <v>2196</v>
-      </c>
-      <c r="I92">
         <f t="shared" si="4"/>
         <v>2196</v>
       </c>
+      <c r="I92">
+        <f t="shared" si="5"/>
+        <v>2196</v>
+      </c>
       <c r="J92" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -4252,19 +4628,23 @@
         <v>57</v>
       </c>
       <c r="H93">
-        <f t="shared" si="3"/>
-        <v>2196</v>
-      </c>
-      <c r="I93">
         <f t="shared" si="4"/>
         <v>2196</v>
       </c>
+      <c r="I93">
+        <f t="shared" si="5"/>
+        <v>2196</v>
+      </c>
       <c r="J93" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -4284,19 +4664,23 @@
         <v>15</v>
       </c>
       <c r="H94">
-        <f t="shared" si="3"/>
-        <v>2253</v>
-      </c>
-      <c r="I94">
         <f t="shared" si="4"/>
         <v>2253</v>
       </c>
+      <c r="I94">
+        <f t="shared" si="5"/>
+        <v>2253</v>
+      </c>
       <c r="J94" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -4316,19 +4700,23 @@
         <v>60</v>
       </c>
       <c r="H95">
-        <f t="shared" si="3"/>
-        <v>2253</v>
-      </c>
-      <c r="I95">
         <f t="shared" si="4"/>
         <v>2253</v>
       </c>
+      <c r="I95">
+        <f t="shared" si="5"/>
+        <v>2253</v>
+      </c>
       <c r="J95" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -4348,19 +4736,23 @@
         <v>61</v>
       </c>
       <c r="H96">
-        <f t="shared" si="3"/>
-        <v>2253</v>
-      </c>
-      <c r="I96">
         <f t="shared" si="4"/>
         <v>2253</v>
       </c>
+      <c r="I96">
+        <f t="shared" si="5"/>
+        <v>2253</v>
+      </c>
       <c r="J96" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -4380,19 +4772,23 @@
         <v>18</v>
       </c>
       <c r="H97">
-        <f t="shared" si="3"/>
-        <v>2314</v>
-      </c>
-      <c r="I97">
         <f t="shared" si="4"/>
         <v>2314</v>
       </c>
+      <c r="I97">
+        <f t="shared" si="5"/>
+        <v>2314</v>
+      </c>
       <c r="J97" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>42</v>
       </c>
@@ -4412,19 +4808,23 @@
         <v>60</v>
       </c>
       <c r="H98">
-        <f t="shared" si="3"/>
-        <v>2314</v>
-      </c>
-      <c r="I98">
         <f t="shared" si="4"/>
         <v>2314</v>
       </c>
+      <c r="I98">
+        <f t="shared" si="5"/>
+        <v>2314</v>
+      </c>
       <c r="J98" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -4444,19 +4844,23 @@
         <v>15</v>
       </c>
       <c r="H99">
-        <f t="shared" si="3"/>
-        <v>2374</v>
-      </c>
-      <c r="I99">
         <f t="shared" si="4"/>
         <v>2374</v>
       </c>
+      <c r="I99">
+        <f t="shared" si="5"/>
+        <v>2374</v>
+      </c>
       <c r="J99" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -4476,19 +4880,23 @@
         <v>60</v>
       </c>
       <c r="H100">
-        <f t="shared" si="3"/>
-        <v>2374</v>
-      </c>
-      <c r="I100">
         <f t="shared" si="4"/>
         <v>2374</v>
       </c>
+      <c r="I100">
+        <f t="shared" si="5"/>
+        <v>2374</v>
+      </c>
       <c r="J100" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>44</v>
       </c>
@@ -4508,19 +4916,23 @@
         <v>16</v>
       </c>
       <c r="H101">
-        <f t="shared" si="3"/>
-        <v>2434</v>
-      </c>
-      <c r="I101">
         <f t="shared" si="4"/>
         <v>2434</v>
       </c>
+      <c r="I101">
+        <f t="shared" si="5"/>
+        <v>2434</v>
+      </c>
       <c r="J101" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -4540,19 +4952,23 @@
         <v>62</v>
       </c>
       <c r="H102">
-        <f t="shared" si="3"/>
-        <v>2434</v>
-      </c>
-      <c r="I102">
         <f t="shared" si="4"/>
         <v>2434</v>
       </c>
+      <c r="I102">
+        <f t="shared" si="5"/>
+        <v>2434</v>
+      </c>
       <c r="J102" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -4572,19 +4988,23 @@
         <v>63</v>
       </c>
       <c r="H103">
-        <f t="shared" si="3"/>
-        <v>2434</v>
-      </c>
-      <c r="I103">
         <f t="shared" si="4"/>
         <v>2434</v>
       </c>
+      <c r="I103">
+        <f t="shared" si="5"/>
+        <v>2434</v>
+      </c>
       <c r="J103" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>45</v>
       </c>
@@ -4604,19 +5024,23 @@
         <v>15</v>
       </c>
       <c r="H104">
-        <f t="shared" si="3"/>
-        <v>2497</v>
-      </c>
-      <c r="I104">
         <f t="shared" si="4"/>
         <v>2497</v>
       </c>
+      <c r="I104">
+        <f t="shared" si="5"/>
+        <v>2497</v>
+      </c>
       <c r="J104" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -4636,19 +5060,23 @@
         <v>68</v>
       </c>
       <c r="H105">
-        <f t="shared" si="3"/>
-        <v>2497</v>
-      </c>
-      <c r="I105">
         <f t="shared" si="4"/>
         <v>2497</v>
       </c>
+      <c r="I105">
+        <f t="shared" si="5"/>
+        <v>2497</v>
+      </c>
       <c r="J105" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -4668,19 +5096,23 @@
         <v>69</v>
       </c>
       <c r="H106">
-        <f t="shared" si="3"/>
-        <v>2497</v>
-      </c>
-      <c r="I106">
         <f t="shared" si="4"/>
         <v>2497</v>
       </c>
+      <c r="I106">
+        <f t="shared" si="5"/>
+        <v>2497</v>
+      </c>
       <c r="J106" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>46</v>
       </c>
@@ -4700,19 +5132,23 @@
         <v>16</v>
       </c>
       <c r="H107">
-        <f t="shared" si="3"/>
-        <v>2566</v>
-      </c>
-      <c r="I107">
         <f t="shared" si="4"/>
         <v>2566</v>
       </c>
+      <c r="I107">
+        <f t="shared" si="5"/>
+        <v>2566</v>
+      </c>
       <c r="J107" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -4732,19 +5168,23 @@
         <v>55</v>
       </c>
       <c r="H108">
-        <f t="shared" si="3"/>
-        <v>2566</v>
-      </c>
-      <c r="I108">
         <f t="shared" si="4"/>
         <v>2566</v>
       </c>
+      <c r="I108">
+        <f t="shared" si="5"/>
+        <v>2566</v>
+      </c>
       <c r="J108" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>46</v>
       </c>
@@ -4764,20 +5204,25 @@
         <v>72</v>
       </c>
       <c r="H109">
-        <f t="shared" si="3"/>
-        <v>2566</v>
-      </c>
-      <c r="I109">
         <f t="shared" si="4"/>
         <v>2566</v>
       </c>
+      <c r="I109">
+        <f t="shared" si="5"/>
+        <v>2566</v>
+      </c>
       <c r="J109" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>2638</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>